--- a/data/ciitizen_health_classifier.xlsx
+++ b/data/ciitizen_health_classifier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Ciitizen-health-scn8a/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A56556B-5642-8E49-851B-D57537503D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{415E7B54-A1B6-6C49-B366-C679D468FF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4340" yWindow="760" windowWidth="30220" windowHeight="20240" xr2:uid="{0B8C4AA2-DB06-E540-9667-05B8E8B84B9B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="191">
   <si>
     <t>eeg_normal</t>
   </si>
@@ -53,9 +53,6 @@
     <t>seizure_focal</t>
   </si>
   <si>
-    <t>seizure_motor</t>
-  </si>
-  <si>
     <t>seizure_tonic-clonic</t>
   </si>
   <si>
@@ -606,6 +603,12 @@
   </si>
   <si>
     <t>seizure_spasms</t>
+  </si>
+  <si>
+    <t>seizure_tonic</t>
+  </si>
+  <si>
+    <t>seizure_myoclonic</t>
   </si>
 </sst>
 </file>
@@ -641,10 +644,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,838 +963,839 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95FEAA4-ED19-0243-827D-1A33A870862F}">
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11" style="1"/>
-    <col min="2" max="2" width="49.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="69" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11" style="1"/>
+    <col min="2" max="2" width="49.83203125" customWidth="1"/>
+    <col min="3" max="3" width="69" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" customWidth="1"/>
+    <col min="5" max="5" width="48.6640625" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1"/>
+    <col min="8" max="9" width="22.1640625" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="1" t="s">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D53" s="1" t="s">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="1" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="1" t="s">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="1" t="s">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="1" t="s">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="1" t="s">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1801,18 +1804,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1993,14 +1996,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DE0BC64-EBA6-4F3E-A869-2807AE8C118F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC682592-B4DE-41AF-8CC8-65ADA175F03E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="e1243626-c8f9-4c2f-bb42-72a883cd7d17"/>
@@ -2013,6 +2008,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DE0BC64-EBA6-4F3E-A869-2807AE8C118F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/ciitizen_health_classifier.xlsx
+++ b/data/ciitizen_health_classifier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Ciitizen-health-scn8a/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{415E7B54-A1B6-6C49-B366-C679D468FF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B0B167-B23D-804D-869E-26176884CD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="760" windowWidth="30220" windowHeight="20240" xr2:uid="{0B8C4AA2-DB06-E540-9667-05B8E8B84B9B}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{0B8C4AA2-DB06-E540-9667-05B8E8B84B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="225">
   <si>
     <t>eeg_normal</t>
   </si>
@@ -609,6 +609,108 @@
   </si>
   <si>
     <t>seizure_myoclonic</t>
+  </si>
+  <si>
+    <t>hospital_gi</t>
+  </si>
+  <si>
+    <t>hospital_infection</t>
+  </si>
+  <si>
+    <t>hospital_pulmonary</t>
+  </si>
+  <si>
+    <t>hospital_respiratory_failure</t>
+  </si>
+  <si>
+    <t>hospital_pneumonia</t>
+  </si>
+  <si>
+    <t>hospital_neuro</t>
+  </si>
+  <si>
+    <t>hospital_behavior</t>
+  </si>
+  <si>
+    <t>hospital_status</t>
+  </si>
+  <si>
+    <t>hospital_seizure</t>
+  </si>
+  <si>
+    <t>Vomiting</t>
+  </si>
+  <si>
+    <t>Gastrointestinal hemorrhage</t>
+  </si>
+  <si>
+    <t>Choking</t>
+  </si>
+  <si>
+    <t>Urinary tract infectious disease</t>
+  </si>
+  <si>
+    <t>Acute viral disease</t>
+  </si>
+  <si>
+    <t>Fever</t>
+  </si>
+  <si>
+    <t>Infection associated with implant</t>
+  </si>
+  <si>
+    <t>Cellulitis</t>
+  </si>
+  <si>
+    <t>Acute upper respiratory infection</t>
+  </si>
+  <si>
+    <t>Sepsis</t>
+  </si>
+  <si>
+    <t>Viral infection</t>
+  </si>
+  <si>
+    <t>Acute viral bronchiolitis</t>
+  </si>
+  <si>
+    <t>Respiratory distress</t>
+  </si>
+  <si>
+    <t>Respiratory failure</t>
+  </si>
+  <si>
+    <t>Acute respiratory failure</t>
+  </si>
+  <si>
+    <t>Pneumonia</t>
+  </si>
+  <si>
+    <t>Aspiration pneumonia</t>
+  </si>
+  <si>
+    <t>Abnormal movement</t>
+  </si>
+  <si>
+    <t>Altered mental status</t>
+  </si>
+  <si>
+    <t>Intolerance to food</t>
+  </si>
+  <si>
+    <t>Irritability</t>
+  </si>
+  <si>
+    <t>Hypoxia</t>
+  </si>
+  <si>
+    <t>Seizure disorder</t>
+  </si>
+  <si>
+    <t>Increased seizure frequency</t>
+  </si>
+  <si>
+    <t>Epilepsy</t>
   </si>
 </sst>
 </file>
@@ -644,11 +746,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95FEAA4-ED19-0243-827D-1A33A870862F}">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:T105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -980,9 +1083,18 @@
     <col min="8" max="9" width="22.1640625" customWidth="1"/>
     <col min="10" max="10" width="21.5" customWidth="1"/>
     <col min="11" max="11" width="22.83203125" customWidth="1"/>
+    <col min="12" max="12" width="24.83203125" customWidth="1"/>
+    <col min="13" max="13" width="28.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" customWidth="1"/>
+    <col min="15" max="15" width="24.83203125" customWidth="1"/>
+    <col min="16" max="16" width="21.33203125" customWidth="1"/>
+    <col min="17" max="17" width="18.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.6640625" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" customWidth="1"/>
+    <col min="20" max="20" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,8 +1128,35 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R1" t="s">
+        <v>197</v>
+      </c>
+      <c r="S1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1051,8 +1190,35 @@
       <c r="K2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>217</v>
+      </c>
+      <c r="R2" t="s">
+        <v>218</v>
+      </c>
+      <c r="S2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1083,8 +1249,29 @@
       <c r="K3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="R3" t="s">
+        <v>219</v>
+      </c>
+      <c r="T3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -1109,8 +1296,23 @@
       <c r="K4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" t="s">
+        <v>220</v>
+      </c>
+      <c r="T4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
@@ -1129,8 +1331,18 @@
       <c r="J5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="T5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>56</v>
       </c>
@@ -1143,8 +1355,18 @@
       <c r="E6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="T6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1157,8 +1379,15 @@
       <c r="E7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
@@ -1171,8 +1400,15 @@
       <c r="E8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
@@ -1182,24 +1418,41 @@
       <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
@@ -1207,7 +1460,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>80</v>
       </c>
@@ -1215,7 +1468,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>83</v>
       </c>
@@ -1223,7 +1476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>85</v>
       </c>
@@ -1231,7 +1484,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>87</v>
       </c>
@@ -1804,21 +2057,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F775B46F6FD544AAE29618E5A3A9371" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58cb33a07bb035cae7be16d5bff37072">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f13cfb92-b021-462b-96a1-a4b5c9fda9b7" xmlns:ns3="e1243626-c8f9-4c2f-bb42-72a883cd7d17" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="864141e9c9a6ba94ace491bfd2efea87" ns2:_="" ns3:_="">
     <xsd:import namespace="f13cfb92-b021-462b-96a1-a4b5c9fda9b7"/>
@@ -1995,32 +2233,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC682592-B4DE-41AF-8CC8-65ADA175F03E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e1243626-c8f9-4c2f-bb42-72a883cd7d17"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f13cfb92-b021-462b-96a1-a4b5c9fda9b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DE0BC64-EBA6-4F3E-A869-2807AE8C118F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F4BCFD-81D0-404C-A852-8743D25DB1E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2037,4 +2265,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DE0BC64-EBA6-4F3E-A869-2807AE8C118F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC682592-B4DE-41AF-8CC8-65ADA175F03E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e1243626-c8f9-4c2f-bb42-72a883cd7d17"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f13cfb92-b021-462b-96a1-a4b5c9fda9b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/ciitizen_health_classifier.xlsx
+++ b/data/ciitizen_health_classifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Ciitizen-health-scn8a/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B0B167-B23D-804D-869E-26176884CD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03A7949-9226-624B-85CC-2ECD59D6C6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{0B8C4AA2-DB06-E540-9667-05B8E8B84B9B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="20260" xr2:uid="{0B8C4AA2-DB06-E540-9667-05B8E8B84B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="549">
   <si>
     <t>eeg_normal</t>
   </si>
@@ -711,6 +711,978 @@
   </si>
   <si>
     <t>Epilepsy</t>
+  </si>
+  <si>
+    <t>diagnosis_behavioral</t>
+  </si>
+  <si>
+    <t>diagnosis_muscoloskeletal</t>
+  </si>
+  <si>
+    <t>diagnosis_gastro</t>
+  </si>
+  <si>
+    <t>diagnosis_immune</t>
+  </si>
+  <si>
+    <t>diagnosis_neuro</t>
+  </si>
+  <si>
+    <t>diagnosis_sensory</t>
+  </si>
+  <si>
+    <t>diagnosis_respiratory</t>
+  </si>
+  <si>
+    <t>diagnosis_cardio</t>
+  </si>
+  <si>
+    <t>Delayed speech and language development</t>
+  </si>
+  <si>
+    <t>Global developmental delay</t>
+  </si>
+  <si>
+    <t>Gross motor developmental delay</t>
+  </si>
+  <si>
+    <t>Stereotypy</t>
+  </si>
+  <si>
+    <t>Self-injurious behavior</t>
+  </si>
+  <si>
+    <t>Abnormal behavior</t>
+  </si>
+  <si>
+    <t>Oral aversion</t>
+  </si>
+  <si>
+    <t>Problem behavior</t>
+  </si>
+  <si>
+    <t>Speech delay</t>
+  </si>
+  <si>
+    <t>Feeling agitated</t>
+  </si>
+  <si>
+    <t>Developmental regression associated with seizure</t>
+  </si>
+  <si>
+    <t>Expressive language delay</t>
+  </si>
+  <si>
+    <t>Fine motor impairment</t>
+  </si>
+  <si>
+    <t>Developmental regression associated with hospitalization</t>
+  </si>
+  <si>
+    <t>Global aphasia</t>
+  </si>
+  <si>
+    <t>Autistic features</t>
+  </si>
+  <si>
+    <t>Autism spectrum disorder</t>
+  </si>
+  <si>
+    <t>Hyperactive behavior</t>
+  </si>
+  <si>
+    <t>Aggressive behavior</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>Gross motor developmental regression</t>
+  </si>
+  <si>
+    <t>Restlessness</t>
+  </si>
+  <si>
+    <t>Hyperirritability</t>
+  </si>
+  <si>
+    <t>Ippropriate laughter</t>
+  </si>
+  <si>
+    <t>Developmental regression</t>
+  </si>
+  <si>
+    <t>Incoordition</t>
+  </si>
+  <si>
+    <t>Mixed receptive-expressive language disorder</t>
+  </si>
+  <si>
+    <t>Delayed milestone</t>
+  </si>
+  <si>
+    <t>Mild gross motor delay</t>
+  </si>
+  <si>
+    <t>Profound global developmental delay</t>
+  </si>
+  <si>
+    <t>Severe intellectual disability</t>
+  </si>
+  <si>
+    <t>Disorders of initiating and maintaining sleep</t>
+  </si>
+  <si>
+    <t>Mood disorder</t>
+  </si>
+  <si>
+    <t>Cognitive developmental delay</t>
+  </si>
+  <si>
+    <t>Motor tic disorder</t>
+  </si>
+  <si>
+    <t>Developmental delay in fine motor function</t>
+  </si>
+  <si>
+    <t>Speech and language disorder</t>
+  </si>
+  <si>
+    <t>Mild expressive language delay</t>
+  </si>
+  <si>
+    <t>Oral apraxia</t>
+  </si>
+  <si>
+    <t>Severe global developmental delay</t>
+  </si>
+  <si>
+    <t>Restless sleep</t>
+  </si>
+  <si>
+    <t>Profound intellectual disability</t>
+  </si>
+  <si>
+    <t>Developmental plateau</t>
+  </si>
+  <si>
+    <t>Increased muscle tone</t>
+  </si>
+  <si>
+    <t>Hyperkinesis</t>
+  </si>
+  <si>
+    <t>Decreased muscle tone</t>
+  </si>
+  <si>
+    <t>Developmental dysplasia of left hip</t>
+  </si>
+  <si>
+    <t>Torticollis</t>
+  </si>
+  <si>
+    <t>Plagiocephaly</t>
+  </si>
+  <si>
+    <t>Hypotonia</t>
+  </si>
+  <si>
+    <t>Abnormal gait</t>
+  </si>
+  <si>
+    <t>Postural plagiocephaly</t>
+  </si>
+  <si>
+    <t>Dysmorphic features</t>
+  </si>
+  <si>
+    <t>Muscle weakness</t>
+  </si>
+  <si>
+    <t>Injury of head</t>
+  </si>
+  <si>
+    <t>Mixed muscle tone</t>
+  </si>
+  <si>
+    <t>Macrocephaly</t>
+  </si>
+  <si>
+    <t>Exotropia</t>
+  </si>
+  <si>
+    <t>Appendicular hypertonia</t>
+  </si>
+  <si>
+    <t>Neuromuscular scoliosis</t>
+  </si>
+  <si>
+    <t>Prematurity of infant</t>
+  </si>
+  <si>
+    <t>Dislocation of bilateral hip joints</t>
+  </si>
+  <si>
+    <t>Scoliosis deformity of spine</t>
+  </si>
+  <si>
+    <t>Osteopenia</t>
+  </si>
+  <si>
+    <t>Talipes equinovarus</t>
+  </si>
+  <si>
+    <t>Contracture of joint of finger</t>
+  </si>
+  <si>
+    <t>Short stature</t>
+  </si>
+  <si>
+    <t>Contracture of joint of left ankle</t>
+  </si>
+  <si>
+    <t>Microcephaly</t>
+  </si>
+  <si>
+    <t>Fracture of femur</t>
+  </si>
+  <si>
+    <t>Congenital hip dysplasia</t>
+  </si>
+  <si>
+    <t>Bilateral contracture of joints of elbows</t>
+  </si>
+  <si>
+    <t>Bilateral contracture of joints of knees</t>
+  </si>
+  <si>
+    <t>Arthrogryposis</t>
+  </si>
+  <si>
+    <t>Fracture of bone</t>
+  </si>
+  <si>
+    <t>Bilateral contracture of joints of wrists</t>
+  </si>
+  <si>
+    <t>Acquired coxa valga</t>
+  </si>
+  <si>
+    <t>Subluxation of left hip joint</t>
+  </si>
+  <si>
+    <t>Bilateral dysplastic hip</t>
+  </si>
+  <si>
+    <t>Syndactyly of toes</t>
+  </si>
+  <si>
+    <t>Fracture of clavicle</t>
+  </si>
+  <si>
+    <t>Dystonia</t>
+  </si>
+  <si>
+    <t>Variable muscle tone</t>
+  </si>
+  <si>
+    <t>Kyphosis deformity of spine</t>
+  </si>
+  <si>
+    <t>Axial hypotonia</t>
+  </si>
+  <si>
+    <t>Generalized hypotonia</t>
+  </si>
+  <si>
+    <t>Fracture of ul</t>
+  </si>
+  <si>
+    <t>Fracture of radius</t>
+  </si>
+  <si>
+    <t>Fracture of scaphoid bone of wrist</t>
+  </si>
+  <si>
+    <t>Brachycephaly</t>
+  </si>
+  <si>
+    <t>Contracture of right elbow joint</t>
+  </si>
+  <si>
+    <t>Spastic quadriparesis</t>
+  </si>
+  <si>
+    <t>Dysmorphic facies</t>
+  </si>
+  <si>
+    <t>Bilateral contracture of joints of hips</t>
+  </si>
+  <si>
+    <t>Congenital coxa valga</t>
+  </si>
+  <si>
+    <t>Hyperplasia of gingiva</t>
+  </si>
+  <si>
+    <t>Bilateral contractures of upper and lower extremities</t>
+  </si>
+  <si>
+    <t>Muscle weakness of lower limb</t>
+  </si>
+  <si>
+    <t>Neuromuscular kyphosis</t>
+  </si>
+  <si>
+    <t>Talipes planovalgus</t>
+  </si>
+  <si>
+    <t>Fracture of ankle</t>
+  </si>
+  <si>
+    <t>Talipes planus</t>
+  </si>
+  <si>
+    <t>Contracture of ankle joint</t>
+  </si>
+  <si>
+    <t>Craniosynostosis syndrome</t>
+  </si>
+  <si>
+    <t>Talipes equinus</t>
+  </si>
+  <si>
+    <t>Pectus excavatum</t>
+  </si>
+  <si>
+    <t>Constipation</t>
+  </si>
+  <si>
+    <t>Gastroesophageal reflux disease (GERD)</t>
+  </si>
+  <si>
+    <t>Feeding problem</t>
+  </si>
+  <si>
+    <t>Feeding difficulty</t>
+  </si>
+  <si>
+    <t>Dysphagia</t>
+  </si>
+  <si>
+    <t>Dependency on feeding tube</t>
+  </si>
+  <si>
+    <t>Dependency on total parenteral nutrition</t>
+  </si>
+  <si>
+    <t>Upper gastrointestil bleeding</t>
+  </si>
+  <si>
+    <t>Hematemesis</t>
+  </si>
+  <si>
+    <t>Chronic constipation</t>
+  </si>
+  <si>
+    <t>Hematochezia</t>
+  </si>
+  <si>
+    <t>Hepatic steatosis</t>
+  </si>
+  <si>
+    <t>Gastroparesis</t>
+  </si>
+  <si>
+    <t>Malnutrition</t>
+  </si>
+  <si>
+    <t>Abdomil pain</t>
+  </si>
+  <si>
+    <t>Gastrointestil dysmotility</t>
+  </si>
+  <si>
+    <t>Double Incontinence</t>
+  </si>
+  <si>
+    <t>Clostridium difficile diarrhea</t>
+  </si>
+  <si>
+    <t>Cholelithiasis without obstruction</t>
+  </si>
+  <si>
+    <t>Oropharyngeal dysphagia</t>
+  </si>
+  <si>
+    <t>Esophagitis</t>
+  </si>
+  <si>
+    <t>Chronic vomiting</t>
+  </si>
+  <si>
+    <t>usea</t>
+  </si>
+  <si>
+    <t>Gastrointestil hemorrhage</t>
+  </si>
+  <si>
+    <t>Projectile vomiting</t>
+  </si>
+  <si>
+    <t>Difficulty swallowing</t>
+  </si>
+  <si>
+    <t>Suck-swallow incoordition</t>
+  </si>
+  <si>
+    <t>Gastritis</t>
+  </si>
+  <si>
+    <t>Bilious vomiting</t>
+  </si>
+  <si>
+    <t>Recurrent aspiration pneumonia</t>
+  </si>
+  <si>
+    <t>Clostridioides difficile infection</t>
+  </si>
+  <si>
+    <t>Septic shock</t>
+  </si>
+  <si>
+    <t>Immunodeficiency disorder</t>
+  </si>
+  <si>
+    <t>Neutropenia</t>
+  </si>
+  <si>
+    <t>Allergic condition</t>
+  </si>
+  <si>
+    <t>Recurrent viral infection</t>
+  </si>
+  <si>
+    <t>Hydrocele of testis</t>
+  </si>
+  <si>
+    <t>Clostridium difficile colitis</t>
+  </si>
+  <si>
+    <t>Localized edema</t>
+  </si>
+  <si>
+    <t>Recurrent pneumonia</t>
+  </si>
+  <si>
+    <t>Recurrent Clostridium difficile infection</t>
+  </si>
+  <si>
+    <t>Immunoglobulin G deficiency</t>
+  </si>
+  <si>
+    <t>Environmental allergy</t>
+  </si>
+  <si>
+    <t>Conjunctivitis</t>
+  </si>
+  <si>
+    <t>Infection caused by Helicobacter pylori</t>
+  </si>
+  <si>
+    <t>Seasol allergy</t>
+  </si>
+  <si>
+    <t>Hepatitis</t>
+  </si>
+  <si>
+    <t>Abnormal involuntary movement</t>
+  </si>
+  <si>
+    <t>Hyperexplexia</t>
+  </si>
+  <si>
+    <t>Movement Disorder</t>
+  </si>
+  <si>
+    <t>Cerebral palsy</t>
+  </si>
+  <si>
+    <t>Meningoencephalitis</t>
+  </si>
+  <si>
+    <t>Subarachnoid hemorrhage</t>
+  </si>
+  <si>
+    <t>Cerebral hemorrhage</t>
+  </si>
+  <si>
+    <t>Chorea</t>
+  </si>
+  <si>
+    <t>Sialorrhea</t>
+  </si>
+  <si>
+    <t>Spastic quadriplegia</t>
+  </si>
+  <si>
+    <t>Insomnia</t>
+  </si>
+  <si>
+    <t>Bruxism</t>
+  </si>
+  <si>
+    <t>Intellectual disability</t>
+  </si>
+  <si>
+    <t>Disturbance in sleep behavior</t>
+  </si>
+  <si>
+    <t>Ptosis</t>
+  </si>
+  <si>
+    <t>Neurogenic bladder</t>
+  </si>
+  <si>
+    <t>Neurogenic bowel</t>
+  </si>
+  <si>
+    <t>Decreased level of consciousness</t>
+  </si>
+  <si>
+    <t>Central sleep apnea</t>
+  </si>
+  <si>
+    <t>Intermittent tremor</t>
+  </si>
+  <si>
+    <t>Coordition problem</t>
+  </si>
+  <si>
+    <t>Sleep disorder</t>
+  </si>
+  <si>
+    <t>Nonspecific paroxysmal spell</t>
+  </si>
+  <si>
+    <t>Hypoxic ischemic encephalopathy</t>
+  </si>
+  <si>
+    <t>Disorder of autonomic nervous system</t>
+  </si>
+  <si>
+    <t>Spasticity</t>
+  </si>
+  <si>
+    <t>Fatigue</t>
+  </si>
+  <si>
+    <t>Ataxia</t>
+  </si>
+  <si>
+    <t>Severe cognitive impairment</t>
+  </si>
+  <si>
+    <t>Impaired cognition (brain fog)</t>
+  </si>
+  <si>
+    <t>Choreoathetosis</t>
+  </si>
+  <si>
+    <t>Hydrocephalus</t>
+  </si>
+  <si>
+    <t>Sandifer syndrome</t>
+  </si>
+  <si>
+    <t>Hypoplasia of corpus callosum</t>
+  </si>
+  <si>
+    <t>Dyskinesia</t>
+  </si>
+  <si>
+    <t>Hypotonic cerebral palsy</t>
+  </si>
+  <si>
+    <t>Intracranial hemorrhage</t>
+  </si>
+  <si>
+    <t>Left hemiplegia</t>
+  </si>
+  <si>
+    <t>Spastic paraplegia</t>
+  </si>
+  <si>
+    <t>Simple craniosynostosis</t>
+  </si>
+  <si>
+    <t>Neuropathic pain</t>
+  </si>
+  <si>
+    <t>Dysmetria</t>
+  </si>
+  <si>
+    <t>Mitochondrial cytopathy</t>
+  </si>
+  <si>
+    <t>Neuralgia</t>
+  </si>
+  <si>
+    <t>Headache</t>
+  </si>
+  <si>
+    <t>Poor visual tracking</t>
+  </si>
+  <si>
+    <t>Myopia</t>
+  </si>
+  <si>
+    <t>Alterting esotropia</t>
+  </si>
+  <si>
+    <t>Astigmatism</t>
+  </si>
+  <si>
+    <t>Cortical visual impairment</t>
+  </si>
+  <si>
+    <t>Chronic otitis media</t>
+  </si>
+  <si>
+    <t>Nystagmus</t>
+  </si>
+  <si>
+    <t>Dysfunction of eustachian tube</t>
+  </si>
+  <si>
+    <t>Hypoplasia of the optic nerve</t>
+  </si>
+  <si>
+    <t>Amblyopia</t>
+  </si>
+  <si>
+    <t>Hypermetropia</t>
+  </si>
+  <si>
+    <t>Staring spell</t>
+  </si>
+  <si>
+    <t>Sensory integration disorder</t>
+  </si>
+  <si>
+    <t>Dysconjugate gaze</t>
+  </si>
+  <si>
+    <t>Intermittent esotropia</t>
+  </si>
+  <si>
+    <t>Disorder of visual pathways</t>
+  </si>
+  <si>
+    <t>Reduced visual acuity</t>
+  </si>
+  <si>
+    <t>Esotropia</t>
+  </si>
+  <si>
+    <t>Decreased hearing</t>
+  </si>
+  <si>
+    <t>Poor visual attention</t>
+  </si>
+  <si>
+    <t>Auditory processing disorder</t>
+  </si>
+  <si>
+    <t>Visual disturbance</t>
+  </si>
+  <si>
+    <t>Cortical blindness</t>
+  </si>
+  <si>
+    <t>Intermittent strabismus</t>
+  </si>
+  <si>
+    <t>Delayed visual maturation</t>
+  </si>
+  <si>
+    <t>Hyperopic astigmatism</t>
+  </si>
+  <si>
+    <t>Hearing loss</t>
+  </si>
+  <si>
+    <t>Recurrent acute otitis media</t>
+  </si>
+  <si>
+    <t>Alterting hypertropia</t>
+  </si>
+  <si>
+    <t>Intermittent exotropia</t>
+  </si>
+  <si>
+    <t>Severe sensorineural hearing loss of the right ear</t>
+  </si>
+  <si>
+    <t>Mild hyperopia</t>
+  </si>
+  <si>
+    <t>Bilateral hearing loss</t>
+  </si>
+  <si>
+    <t>Strabismus</t>
+  </si>
+  <si>
+    <t>Anisocoria</t>
+  </si>
+  <si>
+    <t>Alterting exotropia</t>
+  </si>
+  <si>
+    <t>Myopic astigmatism</t>
+  </si>
+  <si>
+    <t>Left conductive hearing loss</t>
+  </si>
+  <si>
+    <t>Oculomotor apraxia</t>
+  </si>
+  <si>
+    <t>Cortical dysplasia</t>
+  </si>
+  <si>
+    <t>Hyperopia of right eye</t>
+  </si>
+  <si>
+    <t>Hyperopia of left eye</t>
+  </si>
+  <si>
+    <t>Blind or low vision, both eyes</t>
+  </si>
+  <si>
+    <t>Conductive hearing loss of right ear</t>
+  </si>
+  <si>
+    <t>Apnea</t>
+  </si>
+  <si>
+    <t>Breathholding spell</t>
+  </si>
+  <si>
+    <t>Obstructive sleep apnea</t>
+  </si>
+  <si>
+    <t>Laryngomalacia</t>
+  </si>
+  <si>
+    <t>Pulmory aspiration</t>
+  </si>
+  <si>
+    <t>Hypertrophy of tonsils AND adenoids</t>
+  </si>
+  <si>
+    <t>Dependence on supplemental oxygen</t>
+  </si>
+  <si>
+    <t>Dependence on continuous positive airway pressure ventilation</t>
+  </si>
+  <si>
+    <t>Atelectasis</t>
+  </si>
+  <si>
+    <t>Dependence on ventilator</t>
+  </si>
+  <si>
+    <t>Hypertrophy of adenoids</t>
+  </si>
+  <si>
+    <t>Snoring</t>
+  </si>
+  <si>
+    <t>Pulmory edema</t>
+  </si>
+  <si>
+    <t>Respiratory insufficiency</t>
+  </si>
+  <si>
+    <t>Chronic pulmory aspiration</t>
+  </si>
+  <si>
+    <t>Ineffective airway clearance</t>
+  </si>
+  <si>
+    <t>Reactive airway disease</t>
+  </si>
+  <si>
+    <t>Pleural effusion</t>
+  </si>
+  <si>
+    <t>Dependence on biphasic positive airway pressure ventilation</t>
+  </si>
+  <si>
+    <t>Chronic lung disease</t>
+  </si>
+  <si>
+    <t>Chronic cough</t>
+  </si>
+  <si>
+    <t>Chronic respiratory failure</t>
+  </si>
+  <si>
+    <t>Inspiratory stridor</t>
+  </si>
+  <si>
+    <t>Weak cry</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>Tachypnea</t>
+  </si>
+  <si>
+    <t>Pneumothorax</t>
+  </si>
+  <si>
+    <t>Respiratory compromise</t>
+  </si>
+  <si>
+    <t>Breathing-related sleep disorder</t>
+  </si>
+  <si>
+    <t>Restrictive lung disease</t>
+  </si>
+  <si>
+    <t>Respiratory arrest</t>
+  </si>
+  <si>
+    <t>Laryngeal spasm</t>
+  </si>
+  <si>
+    <t>Abnormal breathing</t>
+  </si>
+  <si>
+    <t>Hyperventilation</t>
+  </si>
+  <si>
+    <t>Hypertrophy of tonsils</t>
+  </si>
+  <si>
+    <t>Hypercapnic respiratory failure</t>
+  </si>
+  <si>
+    <t>Dependence on non-invasive ventilation</t>
+  </si>
+  <si>
+    <t>Hypoventilation</t>
+  </si>
+  <si>
+    <t>Vocal cord paralysis</t>
+  </si>
+  <si>
+    <t>Upper respiratory tract obstruction</t>
+  </si>
+  <si>
+    <t>Dependence on nocturl oxygen therapy</t>
+  </si>
+  <si>
+    <t>Dyspnea on exertion</t>
+  </si>
+  <si>
+    <t>Sinus bradycardia</t>
+  </si>
+  <si>
+    <t>Sinus tachycardia</t>
+  </si>
+  <si>
+    <t>Patent foramen ovale</t>
+  </si>
+  <si>
+    <t>Hemangioma</t>
+  </si>
+  <si>
+    <t>Cyanosis</t>
+  </si>
+  <si>
+    <t>Cardiac arrhythmia</t>
+  </si>
+  <si>
+    <t>Cardiomegaly</t>
+  </si>
+  <si>
+    <t>Dextrocardia</t>
+  </si>
+  <si>
+    <t>Prolonged QT interval</t>
+  </si>
+  <si>
+    <t>Anemia</t>
+  </si>
+  <si>
+    <t>Thrombocytopenia</t>
+  </si>
+  <si>
+    <t>Low blood pressure (hypotension)</t>
+  </si>
+  <si>
+    <t>Heart murmur</t>
+  </si>
+  <si>
+    <t>Cardiac arrest</t>
+  </si>
+  <si>
+    <t>Left ventricular hypertrophy</t>
+  </si>
+  <si>
+    <t>Hypertrophic cardiomyopathy</t>
+  </si>
+  <si>
+    <t>Aplastic anemia</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>Pericardial effusion</t>
+  </si>
+  <si>
+    <t>Ventricular septal defect</t>
+  </si>
+  <si>
+    <t>Pulmonic valve stenosis</t>
+  </si>
+  <si>
+    <t>Premature atrial contraction</t>
+  </si>
+  <si>
+    <t>Normocytic anemia</t>
+  </si>
+  <si>
+    <t>Microcytic anemia</t>
+  </si>
+  <si>
+    <t>Hypercholesterolemia</t>
+  </si>
+  <si>
+    <t>Cephalhematoma due to birth trauma</t>
+  </si>
+  <si>
+    <t>Ventricular tachycardia</t>
+  </si>
+  <si>
+    <t>Cold hands</t>
+  </si>
+  <si>
+    <t>Hypoxemia</t>
+  </si>
+  <si>
+    <t>Hypoalbuminemia</t>
+  </si>
+  <si>
+    <t>Mild pulmory valve stenosis</t>
+  </si>
+  <si>
+    <t>Congenital atrial septal defect</t>
   </si>
 </sst>
 </file>
@@ -746,12 +1718,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95FEAA4-ED19-0243-827D-1A33A870862F}">
-  <dimension ref="A1:T105"/>
+  <dimension ref="A1:AB105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1092,9 +2063,17 @@
     <col min="18" max="18" width="19.6640625" customWidth="1"/>
     <col min="19" max="19" width="16.33203125" customWidth="1"/>
     <col min="20" max="20" width="23.83203125" customWidth="1"/>
+    <col min="21" max="21" width="48.6640625" customWidth="1"/>
+    <col min="22" max="22" width="45.83203125" customWidth="1"/>
+    <col min="23" max="23" width="36" customWidth="1"/>
+    <col min="24" max="24" width="33.6640625" customWidth="1"/>
+    <col min="25" max="25" width="32.83203125" customWidth="1"/>
+    <col min="26" max="26" width="41.6640625" customWidth="1"/>
+    <col min="27" max="27" width="53.83203125" customWidth="1"/>
+    <col min="28" max="28" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1128,19 +2107,19 @@
       <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>191</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
         <v>194</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s">
         <v>195</v>
       </c>
       <c r="Q1" t="s">
@@ -1155,8 +2134,32 @@
       <c r="T1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>225</v>
+      </c>
+      <c r="V1" t="s">
+        <v>226</v>
+      </c>
+      <c r="W1" t="s">
+        <v>227</v>
+      </c>
+      <c r="X1" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1190,19 +2193,19 @@
       <c r="K2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>200</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
         <v>203</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" t="s">
         <v>211</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" t="s">
         <v>213</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" t="s">
         <v>215</v>
       </c>
       <c r="Q2" t="s">
@@ -1217,8 +2220,32 @@
       <c r="T2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" t="s">
+        <v>233</v>
+      </c>
+      <c r="V2" t="s">
+        <v>276</v>
+      </c>
+      <c r="W2" t="s">
+        <v>339</v>
+      </c>
+      <c r="X2" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>431</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>475</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1249,19 +2276,19 @@
       <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>201</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" t="s">
         <v>204</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" t="s">
         <v>212</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" t="s">
         <v>214</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" t="s">
         <v>216</v>
       </c>
       <c r="R3" t="s">
@@ -1270,8 +2297,32 @@
       <c r="T3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3" t="s">
+        <v>234</v>
+      </c>
+      <c r="V3" t="s">
+        <v>277</v>
+      </c>
+      <c r="W3" t="s">
+        <v>340</v>
+      </c>
+      <c r="X3" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>476</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -1296,23 +2347,44 @@
       <c r="K4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" t="s">
         <v>202</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" t="s">
         <v>205</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
       <c r="R4" t="s">
         <v>220</v>
       </c>
       <c r="T4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4" t="s">
+        <v>235</v>
+      </c>
+      <c r="V4" t="s">
+        <v>278</v>
+      </c>
+      <c r="W4" t="s">
+        <v>341</v>
+      </c>
+      <c r="X4" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>477</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>49</v>
       </c>
@@ -1331,18 +2403,38 @@
       <c r="J5" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
+      <c r="M5" t="s">
         <v>206</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
       <c r="T5" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U5" t="s">
+        <v>236</v>
+      </c>
+      <c r="V5" t="s">
+        <v>279</v>
+      </c>
+      <c r="W5" t="s">
+        <v>342</v>
+      </c>
+      <c r="X5" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>56</v>
       </c>
@@ -1355,18 +2447,38 @@
       <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
+      <c r="M6" t="s">
         <v>207</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
       <c r="T6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6" t="s">
+        <v>220</v>
+      </c>
+      <c r="V6" t="s">
+        <v>280</v>
+      </c>
+      <c r="W6" t="s">
+        <v>200</v>
+      </c>
+      <c r="X6" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>63</v>
       </c>
@@ -1379,15 +2491,35 @@
       <c r="E7" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2" t="s">
+      <c r="M7" t="s">
         <v>208</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" t="s">
+        <v>237</v>
+      </c>
+      <c r="V7" t="s">
+        <v>281</v>
+      </c>
+      <c r="W7" t="s">
+        <v>343</v>
+      </c>
+      <c r="X7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>480</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
@@ -1400,15 +2532,35 @@
       <c r="E8" t="s">
         <v>135</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2" t="s">
+      <c r="M8" t="s">
         <v>209</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" t="s">
+        <v>238</v>
+      </c>
+      <c r="V8" t="s">
+        <v>282</v>
+      </c>
+      <c r="W8" t="s">
+        <v>344</v>
+      </c>
+      <c r="X8" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>70</v>
       </c>
@@ -1418,432 +2570,1225 @@
       <c r="D9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" t="s">
         <v>210</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" t="s">
+        <v>239</v>
+      </c>
+      <c r="V9" t="s">
+        <v>283</v>
+      </c>
+      <c r="W9" t="s">
+        <v>345</v>
+      </c>
+      <c r="X9" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>438</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>481</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" t="s">
+        <v>240</v>
+      </c>
+      <c r="V10" t="s">
+        <v>284</v>
+      </c>
+      <c r="W10" t="s">
+        <v>346</v>
+      </c>
+      <c r="X10" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>482</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" t="s">
+        <v>241</v>
+      </c>
+      <c r="V11" t="s">
+        <v>285</v>
+      </c>
+      <c r="W11" t="s">
+        <v>347</v>
+      </c>
+      <c r="X11" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>483</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" t="s">
+        <v>242</v>
+      </c>
+      <c r="V12" t="s">
+        <v>286</v>
+      </c>
+      <c r="W12" t="s">
+        <v>348</v>
+      </c>
+      <c r="X12" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>484</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" t="s">
+        <v>243</v>
+      </c>
+      <c r="V13" t="s">
+        <v>287</v>
+      </c>
+      <c r="W13" t="s">
+        <v>349</v>
+      </c>
+      <c r="X13" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>485</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" t="s">
+        <v>244</v>
+      </c>
+      <c r="V14" t="s">
+        <v>288</v>
+      </c>
+      <c r="W14" t="s">
+        <v>350</v>
+      </c>
+      <c r="X14" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>443</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>486</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" t="s">
+        <v>219</v>
+      </c>
+      <c r="V15" t="s">
+        <v>289</v>
+      </c>
+      <c r="W15" t="s">
+        <v>351</v>
+      </c>
+      <c r="X15" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>487</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U16" t="s">
+        <v>245</v>
+      </c>
+      <c r="V16" t="s">
+        <v>290</v>
+      </c>
+      <c r="W16" t="s">
+        <v>352</v>
+      </c>
+      <c r="X16" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>488</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U17" t="s">
+        <v>246</v>
+      </c>
+      <c r="V17" t="s">
+        <v>291</v>
+      </c>
+      <c r="W17" t="s">
+        <v>353</v>
+      </c>
+      <c r="X17" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>400</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>446</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U18" t="s">
+        <v>247</v>
+      </c>
+      <c r="V18" t="s">
+        <v>292</v>
+      </c>
+      <c r="W18" t="s">
+        <v>354</v>
+      </c>
+      <c r="X18" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>447</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>489</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U19" t="s">
+        <v>248</v>
+      </c>
+      <c r="V19" t="s">
+        <v>293</v>
+      </c>
+      <c r="W19" t="s">
+        <v>355</v>
+      </c>
+      <c r="X19" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>490</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U20" t="s">
+        <v>249</v>
+      </c>
+      <c r="V20" t="s">
+        <v>294</v>
+      </c>
+      <c r="W20" t="s">
+        <v>356</v>
+      </c>
+      <c r="X20" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>403</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>491</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U21" t="s">
+        <v>250</v>
+      </c>
+      <c r="V21" t="s">
+        <v>295</v>
+      </c>
+      <c r="W21" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>404</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>492</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U22" t="s">
+        <v>251</v>
+      </c>
+      <c r="V22" t="s">
+        <v>296</v>
+      </c>
+      <c r="W22" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>405</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U23" t="s">
+        <v>252</v>
+      </c>
+      <c r="V23" t="s">
+        <v>297</v>
+      </c>
+      <c r="W23" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>493</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U24" t="s">
+        <v>253</v>
+      </c>
+      <c r="V24" t="s">
+        <v>298</v>
+      </c>
+      <c r="W24" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>407</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>494</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U25" t="s">
+        <v>254</v>
+      </c>
+      <c r="V25" t="s">
+        <v>299</v>
+      </c>
+      <c r="W25" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U26" t="s">
+        <v>255</v>
+      </c>
+      <c r="V26" t="s">
+        <v>300</v>
+      </c>
+      <c r="W26" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>409</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U27" t="s">
+        <v>256</v>
+      </c>
+      <c r="V27" t="s">
+        <v>301</v>
+      </c>
+      <c r="W27" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>497</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U28" t="s">
+        <v>257</v>
+      </c>
+      <c r="V28" t="s">
+        <v>302</v>
+      </c>
+      <c r="W28" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>498</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U29" t="s">
+        <v>258</v>
+      </c>
+      <c r="V29" t="s">
+        <v>303</v>
+      </c>
+      <c r="W29" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>458</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>499</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U30" t="s">
+        <v>259</v>
+      </c>
+      <c r="V30" t="s">
+        <v>304</v>
+      </c>
+      <c r="W30" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>459</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>500</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U31" t="s">
+        <v>260</v>
+      </c>
+      <c r="V31" t="s">
+        <v>305</v>
+      </c>
+      <c r="W31" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>460</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>501</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U32" t="s">
+        <v>261</v>
+      </c>
+      <c r="V32" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>502</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U33" t="s">
+        <v>262</v>
+      </c>
+      <c r="V33" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>503</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U34" t="s">
+        <v>263</v>
+      </c>
+      <c r="V34" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U35" t="s">
+        <v>264</v>
+      </c>
+      <c r="V35" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>464</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U36" t="s">
+        <v>265</v>
+      </c>
+      <c r="V36" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U37" t="s">
+        <v>266</v>
+      </c>
+      <c r="V37" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>466</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U38" t="s">
+        <v>267</v>
+      </c>
+      <c r="V38" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U39" t="s">
+        <v>268</v>
+      </c>
+      <c r="V39" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>468</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D40" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U40" t="s">
+        <v>269</v>
+      </c>
+      <c r="V40" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D41" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U41" t="s">
+        <v>270</v>
+      </c>
+      <c r="V41" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>470</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D42" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U42" t="s">
+        <v>271</v>
+      </c>
+      <c r="V42" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>471</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D43" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U43" t="s">
+        <v>272</v>
+      </c>
+      <c r="V43" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D44" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U44" t="s">
+        <v>273</v>
+      </c>
+      <c r="V44" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>426</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>473</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>115</v>
       </c>
       <c r="D45" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U45" t="s">
+        <v>274</v>
+      </c>
+      <c r="V45" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>474</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D46" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="U46" t="s">
+        <v>275</v>
+      </c>
+      <c r="V46" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>116</v>
       </c>
       <c r="D47" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V47" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>118</v>
       </c>
       <c r="D48" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V48" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D49" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V49" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D50" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V50" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>120</v>
       </c>
       <c r="D51" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V51" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D52" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D53" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V53" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>123</v>
       </c>
       <c r="D54" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V54" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V55" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V56" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V57" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V58" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V59" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V60" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V61" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V62" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="V63" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>133</v>
+      </c>
+      <c r="V64" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
@@ -2057,6 +4002,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F775B46F6FD544AAE29618E5A3A9371" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58cb33a07bb035cae7be16d5bff37072">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f13cfb92-b021-462b-96a1-a4b5c9fda9b7" xmlns:ns3="e1243626-c8f9-4c2f-bb42-72a883cd7d17" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="864141e9c9a6ba94ace491bfd2efea87" ns2:_="" ns3:_="">
     <xsd:import namespace="f13cfb92-b021-462b-96a1-a4b5c9fda9b7"/>
@@ -2233,22 +4193,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC682592-B4DE-41AF-8CC8-65ADA175F03E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e1243626-c8f9-4c2f-bb42-72a883cd7d17"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f13cfb92-b021-462b-96a1-a4b5c9fda9b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DE0BC64-EBA6-4F3E-A869-2807AE8C118F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F4BCFD-81D0-404C-A852-8743D25DB1E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2265,29 +4235,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DE0BC64-EBA6-4F3E-A869-2807AE8C118F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC682592-B4DE-41AF-8CC8-65ADA175F03E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e1243626-c8f9-4c2f-bb42-72a883cd7d17"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f13cfb92-b021-462b-96a1-a4b5c9fda9b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/ciitizen_health_classifier.xlsx
+++ b/data/ciitizen_health_classifier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Ciitizen-health-scn8a/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3955a38f76311f41/Documents/GitHub/Ciitizen-health-scn8a/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03A7949-9226-624B-85CC-2ECD59D6C6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{D03A7949-9226-624B-85CC-2ECD59D6C6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99D0C4CB-3338-4454-93E8-FC8961923765}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="20260" xr2:uid="{0B8C4AA2-DB06-E540-9667-05B8E8B84B9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B8C4AA2-DB06-E540-9667-05B8E8B84B9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="631">
   <si>
     <t>eeg_normal</t>
   </si>
@@ -1076,9 +1076,6 @@
     <t>Dependency on total parenteral nutrition</t>
   </si>
   <si>
-    <t>Upper gastrointestil bleeding</t>
-  </si>
-  <si>
     <t>Hematemesis</t>
   </si>
   <si>
@@ -1100,9 +1097,6 @@
     <t>Abdomil pain</t>
   </si>
   <si>
-    <t>Gastrointestil dysmotility</t>
-  </si>
-  <si>
     <t>Double Incontinence</t>
   </si>
   <si>
@@ -1124,9 +1118,6 @@
     <t>usea</t>
   </si>
   <si>
-    <t>Gastrointestil hemorrhage</t>
-  </si>
-  <si>
     <t>Projectile vomiting</t>
   </si>
   <si>
@@ -1683,6 +1674,261 @@
   </si>
   <si>
     <t>Congenital atrial septal defect</t>
+  </si>
+  <si>
+    <t>Gastrointestinal dysmotility</t>
+  </si>
+  <si>
+    <t>Upper gastrointestinal bleeding</t>
+  </si>
+  <si>
+    <t>gastrointestinal hemorrhage</t>
+  </si>
+  <si>
+    <t>subgroup_lof</t>
+  </si>
+  <si>
+    <t>subgroup_dee</t>
+  </si>
+  <si>
+    <t>subgroup_nondee</t>
+  </si>
+  <si>
+    <t>944f05de-9853-4cc5-9fcf-d47ee7a8dc0f</t>
+  </si>
+  <si>
+    <t>409008b9-671d-456e-96a0-8236a5ee7dbf</t>
+  </si>
+  <si>
+    <t>6acf6198-f2b4-4468-9234-7d2b4710e14f</t>
+  </si>
+  <si>
+    <t>ec227c21-6fdc-46c2-95ef-4ecb6603083c</t>
+  </si>
+  <si>
+    <t>85ec6265-8a3f-48e4-b1fb-16661647d977</t>
+  </si>
+  <si>
+    <t>d3b527d5-0662-42a1-9e0c-67d4cc908595</t>
+  </si>
+  <si>
+    <t>56d3dc1e-63d5-4ad6-9493-57de0fd7ef0e</t>
+  </si>
+  <si>
+    <t>9527087a-40c6-48e4-993c-e3f12f746ee2</t>
+  </si>
+  <si>
+    <t>47c27adc-27bd-41df-b39c-ae70495716cb</t>
+  </si>
+  <si>
+    <t>5979a566-cb58-460e-932f-af259f152547</t>
+  </si>
+  <si>
+    <t>ce45fc4e-0416-4001-895c-6275a532d2e6</t>
+  </si>
+  <si>
+    <t>84bad343-f2e0-4ec6-8f19-9d8f22c2d97e</t>
+  </si>
+  <si>
+    <t>fb67ec01-0ced-4abb-a71e-07621dc999ce</t>
+  </si>
+  <si>
+    <t>1e66ce47-b9fe-460f-9346-796a9e2bf5f3</t>
+  </si>
+  <si>
+    <t>b17a5dff-ebfb-4621-97b9-a0072da41851</t>
+  </si>
+  <si>
+    <t>588a77f3-6a37-4757-8941-070f69cf95b1</t>
+  </si>
+  <si>
+    <t>a6a301ea-bdf5-4111-be04-78a0fb73960a</t>
+  </si>
+  <si>
+    <t>5c8bb15f-1f87-41a1-8932-ff18afdba917</t>
+  </si>
+  <si>
+    <t>b9a324cc-affd-4302-8949-12988004bfb7</t>
+  </si>
+  <si>
+    <t>6e5adadd-cc5c-4a50-90a1-0a8997a9e87d</t>
+  </si>
+  <si>
+    <t>849ac8d6-e9f0-48fc-b775-801f7bf03882</t>
+  </si>
+  <si>
+    <t>edb5f39d-987a-481e-8a09-2b549a96e92e</t>
+  </si>
+  <si>
+    <t>dc15a4e2-a7f1-42be-8418-d5da4f2abe40</t>
+  </si>
+  <si>
+    <t>b9a49da3-795b-49a5-a198-b54b69efc7fe</t>
+  </si>
+  <si>
+    <t>a78e0fd2-2e75-464e-b60a-7f9ab86dc408</t>
+  </si>
+  <si>
+    <t>51f1227c-8312-4c5c-bb8a-fd240a7fb5ab</t>
+  </si>
+  <si>
+    <t>73f5def4-d325-4abc-a24f-5d4d0b1fa72d</t>
+  </si>
+  <si>
+    <t>c1046a01-ecb6-4193-b54a-7fde39bae9c4</t>
+  </si>
+  <si>
+    <t>952cb3f4-19bd-4c0c-a73f-b8dea738116f</t>
+  </si>
+  <si>
+    <t>6f7d6b24-2596-4245-a7bb-046dbe3fdbe2</t>
+  </si>
+  <si>
+    <t>a0db758a-9a41-4a88-b57e-9f2e5f29bf78</t>
+  </si>
+  <si>
+    <t>00bf8331-4336-4010-8d08-3bbc076ec0f5</t>
+  </si>
+  <si>
+    <t>4cdd2c4c-efa0-4ca8-90aa-b77fe60d9cc3</t>
+  </si>
+  <si>
+    <t>d325c1da-237a-4209-af0a-4560d09ff658</t>
+  </si>
+  <si>
+    <t>8d912349-aca0-4a74-98a7-c574d56bfc7d</t>
+  </si>
+  <si>
+    <t>5ba9555a-4f9c-45fa-945f-02c679614e18</t>
+  </si>
+  <si>
+    <t>bf66f57a-d02d-4101-a533-ec8d6b8acebf</t>
+  </si>
+  <si>
+    <t>0ccd19cb-69fa-491f-97c7-14fd3f1dcef5</t>
+  </si>
+  <si>
+    <t>c76ad8fb-19bc-47ad-8e87-c9c9ae1fee82</t>
+  </si>
+  <si>
+    <t>324c6ea2-b518-482e-ad72-6e5d1c365504</t>
+  </si>
+  <si>
+    <t>59a824c2-5f74-40dd-b6e1-785f1aca8c97</t>
+  </si>
+  <si>
+    <t>d04c1f7a-f357-47d5-8e41-4d535e49fa4a</t>
+  </si>
+  <si>
+    <t>47815af9-7429-4c05-a21c-ad373b1103c7</t>
+  </si>
+  <si>
+    <t>04b83955-018d-4b04-bae8-e77615820a58</t>
+  </si>
+  <si>
+    <t>ff572f13-cb3a-4062-b80c-835da555f2cd</t>
+  </si>
+  <si>
+    <t>8aedcfd3-8076-42b8-8037-6cf999b1c80e</t>
+  </si>
+  <si>
+    <t>12a26181-f80d-4993-a2af-1e3019d4ec95</t>
+  </si>
+  <si>
+    <t>1f065541-31bc-43ce-88c4-584c8849bc11</t>
+  </si>
+  <si>
+    <t>aeff5c7c-86ea-4d70-a891-a34fe4477fe0</t>
+  </si>
+  <si>
+    <t>a729e5c1-bb70-4582-82a5-141ee71bf9ac</t>
+  </si>
+  <si>
+    <t>166766fd-f23b-4306-a2f8-91e5f20a4172</t>
+  </si>
+  <si>
+    <t>a0a0ed2d-1f61-4fa4-86e7-91fcde0ae084</t>
+  </si>
+  <si>
+    <t>c8c1c6e1-7b85-4894-8ac8-2b890157c3b1</t>
+  </si>
+  <si>
+    <t>42e08160-64fd-4f1f-9d7a-f771650073d7</t>
+  </si>
+  <si>
+    <t>04c33d94-9c8a-4d27-85cc-8a4af03b6c54</t>
+  </si>
+  <si>
+    <t>3afe807a-afb3-4c34-a594-3cf2bb41e8fc</t>
+  </si>
+  <si>
+    <t>fb4dc826-0823-4535-8283-04a6bb4968d2</t>
+  </si>
+  <si>
+    <t>781f9451-bf23-4a8b-9db6-2cdbf4794640</t>
+  </si>
+  <si>
+    <t>0ca73c00-6d87-4dda-962a-770faa0782d2</t>
+  </si>
+  <si>
+    <t>ef4aa67a-8421-4e40-92eb-44c60305fde6</t>
+  </si>
+  <si>
+    <t>63a0fc61-63b8-4c09-9f42-a2580f9f59c4</t>
+  </si>
+  <si>
+    <t>b633f077-df16-4c7c-ab40-aa83fa7608d6</t>
+  </si>
+  <si>
+    <t>e3b2858f-6fb3-49c4-abf3-09ea7ccbb568</t>
+  </si>
+  <si>
+    <t>c51c487e-87f6-4621-ae28-063421ece9b3</t>
+  </si>
+  <si>
+    <t>e02e1f36-7df8-4cbf-9e12-872a38b8a8bf</t>
+  </si>
+  <si>
+    <t>d085ce5d-3a27-4261-b3a9-03fdc84f9430</t>
+  </si>
+  <si>
+    <t>bae51aa8-6c1f-4ea1-8005-f07558477c41</t>
+  </si>
+  <si>
+    <t>e320e6d6-0e44-423f-a3dc-18029444b6e8</t>
+  </si>
+  <si>
+    <t>e390a903-b1c2-4170-bb17-b6f37e370716</t>
+  </si>
+  <si>
+    <t>52928f64-eb12-44b7-a63c-7276af7a9c71</t>
+  </si>
+  <si>
+    <t>aab1bbd7-596c-4c76-b047-e859434ec997</t>
+  </si>
+  <si>
+    <t>bbb8471f-f12d-499d-99aa-677ea4c77dc5</t>
+  </si>
+  <si>
+    <t>e2fee4a7-cadc-4fa1-a766-40cbe5103c71</t>
+  </si>
+  <si>
+    <t>7c192916-2b3a-44bc-b42f-f92f6f81bd41</t>
+  </si>
+  <si>
+    <t>44720703-57ab-4c29-ab8b-3e1a8200a096</t>
+  </si>
+  <si>
+    <t>422f6362-43ef-4e55-95f5-a4fb6ee50ff4</t>
+  </si>
+  <si>
+    <t>37efebcd-4599-4360-8950-bd522cccec27</t>
+  </si>
+  <si>
+    <t>d9dcf702-a800-46c6-b20a-0df7a0f303a8</t>
+  </si>
+  <si>
+    <t>12958865-1073-4404-a54a-f855b6c44b85</t>
   </si>
 </sst>
 </file>
@@ -2037,1962 +2283,2211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95FEAA4-ED19-0243-827D-1A33A870862F}">
-  <dimension ref="A1:AB105"/>
+  <dimension ref="A1:AE105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.83203125" customWidth="1"/>
-    <col min="3" max="3" width="69" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" customWidth="1"/>
-    <col min="5" max="5" width="48.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1"/>
-    <col min="8" max="9" width="22.1640625" customWidth="1"/>
-    <col min="10" max="10" width="21.5" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" customWidth="1"/>
-    <col min="12" max="12" width="24.83203125" customWidth="1"/>
-    <col min="13" max="13" width="28.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" customWidth="1"/>
-    <col min="15" max="15" width="24.83203125" customWidth="1"/>
-    <col min="16" max="16" width="21.33203125" customWidth="1"/>
-    <col min="17" max="17" width="18.33203125" customWidth="1"/>
-    <col min="18" max="18" width="19.6640625" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" customWidth="1"/>
-    <col min="20" max="20" width="23.83203125" customWidth="1"/>
-    <col min="21" max="21" width="48.6640625" customWidth="1"/>
-    <col min="22" max="22" width="45.83203125" customWidth="1"/>
-    <col min="23" max="23" width="36" customWidth="1"/>
-    <col min="24" max="24" width="33.6640625" customWidth="1"/>
-    <col min="25" max="25" width="32.83203125" customWidth="1"/>
-    <col min="26" max="26" width="41.6640625" customWidth="1"/>
-    <col min="27" max="27" width="53.83203125" customWidth="1"/>
-    <col min="28" max="28" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.875" customWidth="1"/>
+    <col min="6" max="6" width="69" customWidth="1"/>
+    <col min="7" max="7" width="43.625" customWidth="1"/>
+    <col min="8" max="8" width="48.625" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="27.375" customWidth="1"/>
+    <col min="11" max="12" width="22.125" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+    <col min="14" max="14" width="22.875" customWidth="1"/>
+    <col min="15" max="15" width="24.875" customWidth="1"/>
+    <col min="16" max="16" width="28.375" customWidth="1"/>
+    <col min="17" max="17" width="21.375" customWidth="1"/>
+    <col min="18" max="18" width="24.875" customWidth="1"/>
+    <col min="19" max="19" width="21.375" customWidth="1"/>
+    <col min="20" max="20" width="18.375" customWidth="1"/>
+    <col min="21" max="21" width="19.625" customWidth="1"/>
+    <col min="22" max="22" width="16.375" customWidth="1"/>
+    <col min="23" max="23" width="23.875" customWidth="1"/>
+    <col min="24" max="24" width="48.625" customWidth="1"/>
+    <col min="25" max="25" width="45.875" customWidth="1"/>
+    <col min="26" max="26" width="36" customWidth="1"/>
+    <col min="27" max="27" width="33.625" customWidth="1"/>
+    <col min="28" max="28" width="32.875" customWidth="1"/>
+    <col min="29" max="29" width="41.625" customWidth="1"/>
+    <col min="30" max="30" width="53.875" customWidth="1"/>
+    <col min="31" max="31" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>188</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>189</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>190</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>191</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>192</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>193</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>194</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>196</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>197</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>198</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>199</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>225</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>226</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>227</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>228</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>229</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>230</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>231</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>134</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>200</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>203</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>211</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>213</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>215</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>217</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>218</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>61</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>221</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>233</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>276</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>339</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C3" t="s">
+        <v>601</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>212</v>
+      </c>
+      <c r="R3" t="s">
+        <v>214</v>
+      </c>
+      <c r="S3" t="s">
+        <v>216</v>
+      </c>
+      <c r="U3" t="s">
+        <v>219</v>
+      </c>
+      <c r="W3" t="s">
+        <v>222</v>
+      </c>
+      <c r="X3" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O4" t="s">
+        <v>202</v>
+      </c>
+      <c r="P4" t="s">
+        <v>205</v>
+      </c>
+      <c r="U4" t="s">
+        <v>220</v>
+      </c>
+      <c r="W4" t="s">
+        <v>223</v>
+      </c>
+      <c r="X4" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>430</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>474</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B5" t="s">
+        <v>574</v>
+      </c>
+      <c r="C5" t="s">
+        <v>603</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" t="s">
+        <v>206</v>
+      </c>
+      <c r="W5" t="s">
+        <v>224</v>
+      </c>
+      <c r="X5" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA5" t="s">
         <v>368</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C6" t="s">
+        <v>604</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" t="s">
+        <v>207</v>
+      </c>
+      <c r="W6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB6" t="s">
         <v>386</v>
       </c>
-      <c r="Z2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>475</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="AC6" t="s">
+        <v>432</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B7" t="s">
+        <v>576</v>
+      </c>
+      <c r="C7" t="s">
+        <v>605</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s">
+        <v>208</v>
+      </c>
+      <c r="X7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C8" t="s">
+        <v>606</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" t="s">
+        <v>209</v>
+      </c>
+      <c r="X8" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>388</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>559</v>
+      </c>
+      <c r="B9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C9" t="s">
+        <v>607</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s">
+        <v>210</v>
+      </c>
+      <c r="X9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B10" t="s">
+        <v>579</v>
+      </c>
+      <c r="C10" t="s">
+        <v>608</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X10" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>390</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>436</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>479</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B11" t="s">
+        <v>580</v>
+      </c>
+      <c r="C11" t="s">
+        <v>609</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X11" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>562</v>
+      </c>
+      <c r="B12" t="s">
+        <v>581</v>
+      </c>
+      <c r="C12" t="s">
+        <v>610</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X12" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>347</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>392</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>481</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>563</v>
+      </c>
+      <c r="B13" t="s">
+        <v>582</v>
+      </c>
+      <c r="C13" t="s">
+        <v>611</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X13" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>393</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B14" t="s">
+        <v>583</v>
+      </c>
+      <c r="C14" t="s">
+        <v>612</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X14" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>349</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>440</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>565</v>
+      </c>
+      <c r="B15" t="s">
+        <v>584</v>
+      </c>
+      <c r="C15" t="s">
+        <v>613</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X15" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>441</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>484</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>566</v>
+      </c>
+      <c r="B16" t="s">
+        <v>585</v>
+      </c>
+      <c r="C16" t="s">
+        <v>614</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X16" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>396</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>567</v>
+      </c>
+      <c r="B17" t="s">
+        <v>586</v>
+      </c>
+      <c r="C17" t="s">
+        <v>615</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>568</v>
+      </c>
+      <c r="B18" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18" t="s">
+        <v>616</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X18" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>569</v>
+      </c>
+      <c r="B19" t="s">
+        <v>588</v>
+      </c>
+      <c r="C19" t="s">
+        <v>617</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X19" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>445</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>570</v>
+      </c>
+      <c r="B20" t="s">
+        <v>589</v>
+      </c>
+      <c r="C20" t="s">
+        <v>618</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X20" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>382</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>446</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>590</v>
+      </c>
+      <c r="C21" t="s">
+        <v>619</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X21" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>591</v>
+      </c>
+      <c r="C22" t="s">
+        <v>620</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X22" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>592</v>
+      </c>
+      <c r="C23" t="s">
+        <v>621</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X23" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>403</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>593</v>
+      </c>
+      <c r="C24" t="s">
+        <v>622</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="X24" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>450</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>491</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>594</v>
+      </c>
+      <c r="C25" t="s">
+        <v>623</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X25" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>595</v>
+      </c>
+      <c r="C26" t="s">
+        <v>624</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>548</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>452</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>596</v>
+      </c>
+      <c r="C27" t="s">
+        <v>625</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X27" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>407</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>453</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>494</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>597</v>
+      </c>
+      <c r="C28" t="s">
+        <v>626</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X28" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>454</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>598</v>
+      </c>
+      <c r="C29" t="s">
+        <v>627</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X29" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>455</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>496</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>599</v>
+      </c>
+      <c r="C30" t="s">
+        <v>628</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X30" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>456</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>629</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X31" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>364</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>457</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>498</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>630</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X32" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>306</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>412</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>458</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="33" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X33" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>307</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>413</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>500</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="34" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="X34" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>460</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="35" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X35" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="36" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X36" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="37" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X37" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>416</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>463</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="38" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="G38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X38" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>417</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>464</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="39" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="X39" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>465</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="40" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" t="s">
+        <v>117</v>
+      </c>
+      <c r="X40" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>419</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>466</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="41" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" t="s">
+        <v>138</v>
+      </c>
+      <c r="X41" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>420</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="42" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" t="s">
+        <v>142</v>
+      </c>
+      <c r="X42" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>468</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="43" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" t="s">
+        <v>146</v>
+      </c>
+      <c r="X43" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>422</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>469</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="44" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" t="s">
+        <v>147</v>
+      </c>
+      <c r="X44" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>423</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>470</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="45" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" t="s">
+        <v>151</v>
+      </c>
+      <c r="X45" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>424</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>471</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="46" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E46" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>201</v>
-      </c>
-      <c r="M3" t="s">
-        <v>204</v>
-      </c>
-      <c r="N3" t="s">
-        <v>212</v>
-      </c>
-      <c r="O3" t="s">
-        <v>214</v>
-      </c>
-      <c r="P3" t="s">
-        <v>216</v>
-      </c>
-      <c r="R3" t="s">
-        <v>219</v>
-      </c>
-      <c r="T3" t="s">
-        <v>222</v>
-      </c>
-      <c r="U3" t="s">
-        <v>234</v>
-      </c>
-      <c r="V3" t="s">
-        <v>277</v>
-      </c>
-      <c r="W3" t="s">
-        <v>340</v>
-      </c>
-      <c r="X3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>432</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>476</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L4" t="s">
-        <v>202</v>
-      </c>
-      <c r="M4" t="s">
-        <v>205</v>
-      </c>
-      <c r="R4" t="s">
-        <v>220</v>
-      </c>
-      <c r="T4" t="s">
-        <v>223</v>
-      </c>
-      <c r="U4" t="s">
-        <v>235</v>
-      </c>
-      <c r="V4" t="s">
-        <v>278</v>
-      </c>
-      <c r="W4" t="s">
-        <v>341</v>
-      </c>
-      <c r="X4" t="s">
-        <v>370</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>433</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>477</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="G46" t="s">
+        <v>152</v>
+      </c>
+      <c r="X46" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>425</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="48" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="49" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G53" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="57" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
         <v>134</v>
       </c>
-      <c r="M5" t="s">
-        <v>206</v>
-      </c>
-      <c r="T5" t="s">
-        <v>224</v>
-      </c>
-      <c r="U5" t="s">
-        <v>236</v>
-      </c>
-      <c r="V5" t="s">
-        <v>279</v>
-      </c>
-      <c r="W5" t="s">
-        <v>342</v>
-      </c>
-      <c r="X5" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>434</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>478</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" t="s">
-        <v>207</v>
-      </c>
-      <c r="T6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" t="s">
-        <v>220</v>
-      </c>
-      <c r="V6" t="s">
-        <v>280</v>
-      </c>
-      <c r="W6" t="s">
-        <v>200</v>
-      </c>
-      <c r="X6" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>389</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>435</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>479</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" t="s">
-        <v>208</v>
-      </c>
-      <c r="U7" t="s">
-        <v>237</v>
-      </c>
-      <c r="V7" t="s">
-        <v>281</v>
-      </c>
-      <c r="W7" t="s">
-        <v>343</v>
-      </c>
-      <c r="X7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>436</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>480</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
         <v>135</v>
       </c>
-      <c r="M8" t="s">
-        <v>209</v>
-      </c>
-      <c r="U8" t="s">
-        <v>238</v>
-      </c>
-      <c r="V8" t="s">
-        <v>282</v>
-      </c>
-      <c r="W8" t="s">
-        <v>344</v>
-      </c>
-      <c r="X8" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>391</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>437</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" t="s">
-        <v>210</v>
-      </c>
-      <c r="U9" t="s">
-        <v>239</v>
-      </c>
-      <c r="V9" t="s">
-        <v>283</v>
-      </c>
-      <c r="W9" t="s">
-        <v>345</v>
-      </c>
-      <c r="X9" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>392</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>438</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>481</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U10" t="s">
-        <v>240</v>
-      </c>
-      <c r="V10" t="s">
-        <v>284</v>
-      </c>
-      <c r="W10" t="s">
-        <v>346</v>
-      </c>
-      <c r="X10" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>393</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>439</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>482</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U11" t="s">
-        <v>241</v>
-      </c>
-      <c r="V11" t="s">
-        <v>285</v>
-      </c>
-      <c r="W11" t="s">
-        <v>347</v>
-      </c>
-      <c r="X11" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>394</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>440</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>483</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U12" t="s">
-        <v>242</v>
-      </c>
-      <c r="V12" t="s">
-        <v>286</v>
-      </c>
-      <c r="W12" t="s">
-        <v>348</v>
-      </c>
-      <c r="X12" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>395</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>441</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>484</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U13" t="s">
-        <v>243</v>
-      </c>
-      <c r="V13" t="s">
-        <v>287</v>
-      </c>
-      <c r="W13" t="s">
-        <v>349</v>
-      </c>
-      <c r="X13" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>396</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>485</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U14" t="s">
-        <v>244</v>
-      </c>
-      <c r="V14" t="s">
-        <v>288</v>
-      </c>
-      <c r="W14" t="s">
-        <v>350</v>
-      </c>
-      <c r="X14" t="s">
-        <v>379</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>397</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>443</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>486</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U15" t="s">
-        <v>219</v>
-      </c>
-      <c r="V15" t="s">
-        <v>289</v>
-      </c>
-      <c r="W15" t="s">
-        <v>351</v>
-      </c>
-      <c r="X15" t="s">
-        <v>380</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>444</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>487</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U16" t="s">
-        <v>245</v>
-      </c>
-      <c r="V16" t="s">
-        <v>290</v>
-      </c>
-      <c r="W16" t="s">
-        <v>352</v>
-      </c>
-      <c r="X16" t="s">
-        <v>381</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>445</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>488</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U17" t="s">
-        <v>246</v>
-      </c>
-      <c r="V17" t="s">
-        <v>291</v>
-      </c>
-      <c r="W17" t="s">
-        <v>353</v>
-      </c>
-      <c r="X17" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>400</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U18" t="s">
-        <v>247</v>
-      </c>
-      <c r="V18" t="s">
-        <v>292</v>
-      </c>
-      <c r="W18" t="s">
-        <v>354</v>
-      </c>
-      <c r="X18" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>401</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>489</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U19" t="s">
-        <v>248</v>
-      </c>
-      <c r="V19" t="s">
-        <v>293</v>
-      </c>
-      <c r="W19" t="s">
-        <v>355</v>
-      </c>
-      <c r="X19" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>402</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>448</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>490</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U20" t="s">
-        <v>249</v>
-      </c>
-      <c r="V20" t="s">
-        <v>294</v>
-      </c>
-      <c r="W20" t="s">
-        <v>356</v>
-      </c>
-      <c r="X20" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>403</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>449</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>491</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U21" t="s">
-        <v>250</v>
-      </c>
-      <c r="V21" t="s">
-        <v>295</v>
-      </c>
-      <c r="W21" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>404</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>450</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>492</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U22" t="s">
-        <v>251</v>
-      </c>
-      <c r="V22" t="s">
-        <v>296</v>
-      </c>
-      <c r="W22" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>405</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U23" t="s">
-        <v>252</v>
-      </c>
-      <c r="V23" t="s">
-        <v>297</v>
-      </c>
-      <c r="W23" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>406</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>452</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>493</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U24" t="s">
-        <v>253</v>
-      </c>
-      <c r="V24" t="s">
-        <v>298</v>
-      </c>
-      <c r="W24" t="s">
-        <v>360</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>494</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U25" t="s">
-        <v>254</v>
-      </c>
-      <c r="V25" t="s">
-        <v>299</v>
-      </c>
-      <c r="W25" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>408</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>454</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>495</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U26" t="s">
-        <v>255</v>
-      </c>
-      <c r="V26" t="s">
-        <v>300</v>
-      </c>
-      <c r="W26" t="s">
-        <v>362</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>409</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>455</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U27" t="s">
-        <v>256</v>
-      </c>
-      <c r="V27" t="s">
-        <v>301</v>
-      </c>
-      <c r="W27" t="s">
-        <v>363</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>410</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>456</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>497</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U28" t="s">
-        <v>257</v>
-      </c>
-      <c r="V28" t="s">
-        <v>302</v>
-      </c>
-      <c r="W28" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>411</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>498</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="U29" t="s">
-        <v>258</v>
-      </c>
-      <c r="V29" t="s">
-        <v>303</v>
-      </c>
-      <c r="W29" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>499</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U30" t="s">
-        <v>259</v>
-      </c>
-      <c r="V30" t="s">
-        <v>304</v>
-      </c>
-      <c r="W30" t="s">
-        <v>366</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>413</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>500</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U31" t="s">
-        <v>260</v>
-      </c>
-      <c r="V31" t="s">
-        <v>305</v>
-      </c>
-      <c r="W31" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>414</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>460</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>501</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="U32" t="s">
-        <v>261</v>
-      </c>
-      <c r="V32" t="s">
-        <v>306</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>415</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>502</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U33" t="s">
-        <v>262</v>
-      </c>
-      <c r="V33" t="s">
-        <v>307</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>416</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>462</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>503</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U34" t="s">
-        <v>263</v>
-      </c>
-      <c r="V34" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>417</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U35" t="s">
-        <v>264</v>
-      </c>
-      <c r="V35" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>418</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>464</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U36" t="s">
-        <v>265</v>
-      </c>
-      <c r="V36" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U37" t="s">
-        <v>266</v>
-      </c>
-      <c r="V37" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>419</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>466</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U38" t="s">
-        <v>267</v>
-      </c>
-      <c r="V38" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>420</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>467</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U39" t="s">
-        <v>268</v>
-      </c>
-      <c r="V39" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>421</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>468</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" t="s">
-        <v>117</v>
-      </c>
-      <c r="U40" t="s">
-        <v>269</v>
-      </c>
-      <c r="V40" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>422</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>469</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" t="s">
-        <v>138</v>
-      </c>
-      <c r="U41" t="s">
-        <v>270</v>
-      </c>
-      <c r="V41" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>423</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>470</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" t="s">
-        <v>142</v>
-      </c>
-      <c r="U42" t="s">
-        <v>271</v>
-      </c>
-      <c r="V42" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>424</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" t="s">
-        <v>146</v>
-      </c>
-      <c r="U43" t="s">
-        <v>272</v>
-      </c>
-      <c r="V43" t="s">
-        <v>317</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>425</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" t="s">
-        <v>147</v>
-      </c>
-      <c r="U44" t="s">
-        <v>273</v>
-      </c>
-      <c r="V44" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>426</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" t="s">
-        <v>151</v>
-      </c>
-      <c r="U45" t="s">
-        <v>274</v>
-      </c>
-      <c r="V45" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>427</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>474</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" t="s">
-        <v>152</v>
-      </c>
-      <c r="U46" t="s">
-        <v>275</v>
-      </c>
-      <c r="V46" t="s">
-        <v>320</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>428</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" t="s">
-        <v>159</v>
-      </c>
-      <c r="V47" t="s">
-        <v>321</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" t="s">
-        <v>160</v>
-      </c>
-      <c r="V48" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" t="s">
-        <v>163</v>
-      </c>
-      <c r="V49" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" t="s">
-        <v>166</v>
-      </c>
-      <c r="V50" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" t="s">
-        <v>167</v>
-      </c>
-      <c r="V51" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" t="s">
-        <v>174</v>
-      </c>
-      <c r="V52" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" t="s">
-        <v>176</v>
-      </c>
-      <c r="V53" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" t="s">
-        <v>182</v>
-      </c>
-      <c r="V54" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="V55" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="V56" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="V57" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V58" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V59" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="V60" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="V61" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="V62" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="V63" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="V64" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4002,21 +4497,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F775B46F6FD544AAE29618E5A3A9371" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="58cb33a07bb035cae7be16d5bff37072">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f13cfb92-b021-462b-96a1-a4b5c9fda9b7" xmlns:ns3="e1243626-c8f9-4c2f-bb42-72a883cd7d17" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="864141e9c9a6ba94ace491bfd2efea87" ns2:_="" ns3:_="">
     <xsd:import namespace="f13cfb92-b021-462b-96a1-a4b5c9fda9b7"/>
@@ -4193,32 +4673,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC682592-B4DE-41AF-8CC8-65ADA175F03E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e1243626-c8f9-4c2f-bb42-72a883cd7d17"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f13cfb92-b021-462b-96a1-a4b5c9fda9b7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DE0BC64-EBA6-4F3E-A869-2807AE8C118F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F4BCFD-81D0-404C-A852-8743D25DB1E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4235,4 +4705,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DE0BC64-EBA6-4F3E-A869-2807AE8C118F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC682592-B4DE-41AF-8CC8-65ADA175F03E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e1243626-c8f9-4c2f-bb42-72a883cd7d17"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f13cfb92-b021-462b-96a1-a4b5c9fda9b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>